--- a/ЕГЭ Игнат Смотрицкий.xlsx
+++ b/ЕГЭ Игнат Смотрицкий.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C3F7B-FA0C-43B2-97D0-C09BB7C6D7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E674F253-AFD2-45DD-94C6-05983636E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,11 +798,13 @@
     <col min="2" max="2" width="4.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="5" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="14">
         <v>44848</v>
       </c>
@@ -810,8 +812,12 @@
         <v>44851</v>
       </c>
       <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="21">
+        <v>44857</v>
+      </c>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -819,8 +825,9 @@
         <v>0</v>
       </c>
       <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -829,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -838,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -851,8 +858,9 @@
       <c r="D5" s="17">
         <v>17320</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -863,8 +871,9 @@
         <v>4</v>
       </c>
       <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -872,8 +881,9 @@
         <v>5</v>
       </c>
       <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -882,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -891,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -899,8 +909,9 @@
         <v>8</v>
       </c>
       <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -909,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -918,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -929,8 +940,9 @@
         <v>61</v>
       </c>
       <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>7</v>
       </c>
@@ -938,8 +950,9 @@
         <v>11</v>
       </c>
       <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -947,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -955,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -963,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
@@ -971,8 +984,9 @@
         <v>15</v>
       </c>
       <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -980,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -996,7 +1010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1009,8 +1023,9 @@
       <c r="D22" s="17">
         <v>27518</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1021,8 +1036,9 @@
         <v>20</v>
       </c>
       <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>11</v>
       </c>
@@ -1030,8 +1046,9 @@
         <v>21</v>
       </c>
       <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1049,7 +1066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -1060,8 +1077,9 @@
         <v>24</v>
       </c>
       <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>13</v>
       </c>
@@ -1069,8 +1087,9 @@
         <v>25</v>
       </c>
       <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1079,7 +1098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1088,7 +1107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1097,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -1119,8 +1138,9 @@
       <c r="D33" s="18">
         <v>45248</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>15</v>
       </c>
@@ -1128,8 +1148,9 @@
         <v>31</v>
       </c>
       <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>26</v>
       </c>
@@ -1137,8 +1158,14 @@
       <c r="C35" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="4">
+        <v>38949</v>
+      </c>
+      <c r="H35" s="19">
+        <v>34516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>27</v>
       </c>
@@ -1147,7 +1174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>28</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>29</v>
       </c>
@@ -1165,7 +1192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>16</v>
       </c>
@@ -1173,8 +1200,9 @@
         <v>36</v>
       </c>
       <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>30</v>
       </c>
@@ -1183,7 +1211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>31</v>
       </c>
@@ -1195,7 +1223,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>32</v>
       </c>
@@ -1204,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>33</v>
       </c>
@@ -1215,11 +1243,17 @@
         <v>40</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="19">
+      <c r="E43" s="4">
         <v>39762</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="18">
+        <v>37373</v>
+      </c>
+      <c r="G43" s="2">
+        <v>37372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>34</v>
       </c>
@@ -1233,11 +1267,11 @@
       <c r="E44" s="4">
         <v>35992</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="18">
         <v>40734</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>19</v>
       </c>
@@ -1245,8 +1279,9 @@
         <v>42</v>
       </c>
       <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>35</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>36</v>
       </c>
@@ -1264,7 +1299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>20</v>
       </c>
@@ -1272,8 +1307,9 @@
         <v>45</v>
       </c>
       <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>37</v>
       </c>
@@ -1282,7 +1318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>38</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>21</v>
       </c>
@@ -1299,8 +1335,9 @@
         <v>46</v>
       </c>
       <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>39</v>
       </c>
@@ -1309,7 +1346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>40</v>
       </c>
@@ -1318,7 +1355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>22</v>
       </c>
@@ -1326,8 +1363,9 @@
         <v>62</v>
       </c>
       <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>23</v>
       </c>
@@ -1335,8 +1373,9 @@
         <v>47</v>
       </c>
       <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>45</v>
       </c>
@@ -1345,7 +1384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>46</v>
       </c>
@@ -1354,7 +1393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>47</v>
       </c>
@@ -1363,7 +1402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>48</v>
       </c>
@@ -1372,7 +1411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>49</v>
       </c>
@@ -1383,8 +1422,9 @@
         <v>52</v>
       </c>
       <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>50</v>
       </c>
@@ -1395,8 +1435,9 @@
         <v>53</v>
       </c>
       <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>51</v>
       </c>
@@ -1407,8 +1448,9 @@
         <v>53</v>
       </c>
       <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>52</v>
       </c>
@@ -1419,8 +1461,9 @@
         <v>54</v>
       </c>
       <c r="D63" s="15"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1436,8 +1479,9 @@
       <c r="B68" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=17320" xr:uid="{6E199988-EFAE-4001-8D50-712F42EA03C9}"/>
@@ -1447,9 +1491,13 @@
     <hyperlink ref="E44" r:id="rId5" display="https://inf-ege.sdamgia.ru/problem?id=35992" xr:uid="{F0FA48CC-6AE3-4EE5-8873-E7DE45BEE9F6}"/>
     <hyperlink ref="F44" r:id="rId6" display="https://inf-ege.sdamgia.ru/problem?id=40734" xr:uid="{08D51E11-A14B-4204-A605-16D35C95F962}"/>
     <hyperlink ref="E43" r:id="rId7" display="https://inf-ege.sdamgia.ru/problem?id=39762" xr:uid="{02E1BDCD-1E3E-4EAD-9ED7-1C423757F4A2}"/>
+    <hyperlink ref="G43" r:id="rId8" display="https://inf-ege.sdamgia.ru/problem?id=37372" xr:uid="{B606E77D-BEEE-4177-B2BC-789E1B5F0C13}"/>
+    <hyperlink ref="F43" r:id="rId9" display="https://inf-ege.sdamgia.ru/problem?id=37373" xr:uid="{511EDE11-A2CF-485D-A3B8-90E7197FEC35}"/>
+    <hyperlink ref="G35" r:id="rId10" display="https://inf-ege.sdamgia.ru/problem?id=38949" xr:uid="{F4034074-E614-45C3-BED2-EE660733B254}"/>
+    <hyperlink ref="H35" r:id="rId11" display="https://inf-ege.sdamgia.ru/problem?id=34516" xr:uid="{B37012A6-9CBB-4F60-B6E6-70EEA6E85900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Игнат Смотрицкий.xlsx
+++ b/ЕГЭ Игнат Смотрицкий.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E674F253-AFD2-45DD-94C6-05983636E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AE10DA-CC55-4A8E-8E3D-81528568D618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -976,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="D18" s="15"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -994,23 +994,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="19">
+        <v>36021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="2">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1025,7 +1031,7 @@
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1038,7 +1044,7 @@
       <c r="D23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>11</v>
       </c>
@@ -1048,7 +1054,7 @@
       <c r="D24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -1079,7 +1085,7 @@
       <c r="D27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>13</v>
       </c>
@@ -1089,7 +1095,7 @@
       <c r="D28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1124,6 +1130,9 @@
       <c r="C32" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="G32" s="2">
+        <v>33483</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -1139,6 +1148,9 @@
         <v>45248</v>
       </c>
       <c r="F33" s="15"/>
+      <c r="G33" s="2">
+        <v>38948</v>
+      </c>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
@@ -1161,7 +1173,7 @@
       <c r="G35" s="4">
         <v>38949</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="1">
         <v>34516</v>
       </c>
     </row>
@@ -1181,6 +1193,9 @@
       <c r="B37" s="9"/>
       <c r="C37" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="G37" s="2">
+        <v>16821</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1495,9 +1510,14 @@
     <hyperlink ref="F43" r:id="rId9" display="https://inf-ege.sdamgia.ru/problem?id=37373" xr:uid="{511EDE11-A2CF-485D-A3B8-90E7197FEC35}"/>
     <hyperlink ref="G35" r:id="rId10" display="https://inf-ege.sdamgia.ru/problem?id=38949" xr:uid="{F4034074-E614-45C3-BED2-EE660733B254}"/>
     <hyperlink ref="H35" r:id="rId11" display="https://inf-ege.sdamgia.ru/problem?id=34516" xr:uid="{B37012A6-9CBB-4F60-B6E6-70EEA6E85900}"/>
+    <hyperlink ref="G37" r:id="rId12" display="https://inf-ege.sdamgia.ru/problem?id=16821" xr:uid="{3032177C-B964-47A6-BE8A-990902AE2EF1}"/>
+    <hyperlink ref="G33" r:id="rId13" display="https://inf-ege.sdamgia.ru/problem?id=38948" xr:uid="{D8663CF8-2A89-4AED-9DBE-C3CED4AB1BF9}"/>
+    <hyperlink ref="G32" r:id="rId14" display="https://inf-ege.sdamgia.ru/problem?id=33483" xr:uid="{3A489FB2-C069-4DF9-B32A-62CE1C38B726}"/>
+    <hyperlink ref="G21" r:id="rId15" display="https://inf-ege.sdamgia.ru/problem?id=5087" xr:uid="{06A3A6BD-08B9-4334-AA4C-D18D7F8C0C42}"/>
+    <hyperlink ref="G20" r:id="rId16" display="https://inf-ege.sdamgia.ru/problem?id=36021" xr:uid="{75535224-1F34-4342-B850-06073954A690}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Игнат Смотрицкий.xlsx
+++ b/ЕГЭ Игнат Смотрицкий.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AE10DA-CC55-4A8E-8E3D-81528568D618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A973BDA-D0B3-42E1-BD13-82055FC9BB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -494,6 +494,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -786,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,11 +801,13 @@
     <col min="4" max="4" width="10.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="7" max="7" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D1" s="14">
         <v>44848</v>
       </c>
@@ -816,8 +819,13 @@
         <v>44857</v>
       </c>
       <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="21">
+        <v>44864</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -826,8 +834,9 @@
       </c>
       <c r="D2" s="15"/>
       <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -836,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -845,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -859,8 +868,9 @@
         <v>17320</v>
       </c>
       <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -872,8 +882,9 @@
       </c>
       <c r="D6" s="15"/>
       <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -882,8 +893,9 @@
       </c>
       <c r="D7" s="15"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -892,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -901,7 +913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -910,8 +922,9 @@
       </c>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -920,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -929,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -941,8 +954,9 @@
       </c>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>7</v>
       </c>
@@ -951,8 +965,9 @@
       </c>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -960,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -968,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -976,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
@@ -985,8 +1000,9 @@
       </c>
       <c r="D18" s="15"/>
       <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -994,18 +1010,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="4">
         <v>36021</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="2">
+        <v>13621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1016,7 +1035,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1030,8 +1049,9 @@
         <v>27518</v>
       </c>
       <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1043,8 +1063,9 @@
       </c>
       <c r="D23" s="15"/>
       <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>11</v>
       </c>
@@ -1053,8 +1074,9 @@
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1063,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -1084,8 +1106,18 @@
       </c>
       <c r="D27" s="15"/>
       <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="15"/>
+      <c r="I27" s="4">
+        <v>11243</v>
+      </c>
+      <c r="J27" s="4">
+        <v>47009</v>
+      </c>
+      <c r="K27" s="19">
+        <v>40728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>13</v>
       </c>
@@ -1094,8 +1126,9 @@
       </c>
       <c r="D28" s="15"/>
       <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1104,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1113,7 +1146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1122,7 +1155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1151,6 +1184,7 @@
       <c r="G33" s="2">
         <v>38948</v>
       </c>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
@@ -1161,6 +1195,7 @@
       </c>
       <c r="D34" s="15"/>
       <c r="F34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
@@ -1173,7 +1208,7 @@
       <c r="G35" s="4">
         <v>38949</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="22">
         <v>34516</v>
       </c>
     </row>
@@ -1216,6 +1251,7 @@
       </c>
       <c r="D39" s="15"/>
       <c r="F39" s="15"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -1267,6 +1303,7 @@
       <c r="G43" s="2">
         <v>37372</v>
       </c>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
@@ -1285,6 +1322,7 @@
       <c r="F44" s="18">
         <v>40734</v>
       </c>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
@@ -1295,6 +1333,7 @@
       </c>
       <c r="D45" s="15"/>
       <c r="F45" s="15"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -1323,8 +1362,9 @@
       </c>
       <c r="D48" s="15"/>
       <c r="F48" s="15"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>37</v>
       </c>
@@ -1333,7 +1373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>38</v>
       </c>
@@ -1342,7 +1382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>21</v>
       </c>
@@ -1351,8 +1391,9 @@
       </c>
       <c r="D51" s="15"/>
       <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>39</v>
       </c>
@@ -1361,7 +1402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>40</v>
       </c>
@@ -1370,7 +1411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>22</v>
       </c>
@@ -1379,8 +1420,9 @@
       </c>
       <c r="D54" s="15"/>
       <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>23</v>
       </c>
@@ -1389,8 +1431,9 @@
       </c>
       <c r="D55" s="15"/>
       <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>45</v>
       </c>
@@ -1399,7 +1442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>46</v>
       </c>
@@ -1408,7 +1451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>47</v>
       </c>
@@ -1417,7 +1460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>48</v>
       </c>
@@ -1426,7 +1469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>49</v>
       </c>
@@ -1438,8 +1481,9 @@
       </c>
       <c r="D60" s="15"/>
       <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>50</v>
       </c>
@@ -1451,8 +1495,9 @@
       </c>
       <c r="D61" s="15"/>
       <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>51</v>
       </c>
@@ -1464,8 +1509,9 @@
       </c>
       <c r="D62" s="15"/>
       <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>52</v>
       </c>
@@ -1477,8 +1523,9 @@
       </c>
       <c r="D63" s="15"/>
       <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1494,9 +1541,10 @@
       <c r="B68" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=17320" xr:uid="{6E199988-EFAE-4001-8D50-712F42EA03C9}"/>
@@ -1515,9 +1563,13 @@
     <hyperlink ref="G32" r:id="rId14" display="https://inf-ege.sdamgia.ru/problem?id=33483" xr:uid="{3A489FB2-C069-4DF9-B32A-62CE1C38B726}"/>
     <hyperlink ref="G21" r:id="rId15" display="https://inf-ege.sdamgia.ru/problem?id=5087" xr:uid="{06A3A6BD-08B9-4334-AA4C-D18D7F8C0C42}"/>
     <hyperlink ref="G20" r:id="rId16" display="https://inf-ege.sdamgia.ru/problem?id=36021" xr:uid="{75535224-1F34-4342-B850-06073954A690}"/>
+    <hyperlink ref="I20" r:id="rId17" display="https://inf-ege.sdamgia.ru/problem?id=13621" xr:uid="{DD435065-6092-4F28-83E5-A10F95B96E1F}"/>
+    <hyperlink ref="I27" r:id="rId18" display="https://inf-ege.sdamgia.ru/problem?id=11243" xr:uid="{BF60604B-97DF-4D5F-94CF-60CA9E53BA8B}"/>
+    <hyperlink ref="J27" r:id="rId19" display="https://inf-ege.sdamgia.ru/problem?id=47009" xr:uid="{DFFF076C-3C5B-4C22-9DA7-3A1B27FC1D32}"/>
+    <hyperlink ref="K27" r:id="rId20" display="https://inf-ege.sdamgia.ru/problem?id=40728" xr:uid="{38762A31-B80D-4609-BA56-E5629D57BF34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Игнат Смотрицкий.xlsx
+++ b/ЕГЭ Игнат Смотрицкий.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A973BDA-D0B3-42E1-BD13-82055FC9BB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60302A-34FC-44A2-A31D-E775B2205EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Анализ информационных моделей</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Многопроцессорные системы</t>
+  </si>
+  <si>
+    <t>Операции в разных СС с двумя переменными</t>
+  </si>
+  <si>
+    <t>Операции в разных СС с одной переменной</t>
+  </si>
+  <si>
+    <t>Операции в одной СС</t>
+  </si>
+  <si>
+    <t>Прямое сложение в СС</t>
   </si>
 </sst>
 </file>
@@ -345,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -451,6 +463,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -461,7 +514,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -487,6 +540,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,7 +563,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -787,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,29 +871,56 @@
     <col min="6" max="6" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="9" max="10" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="14">
         <v>44848</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="32">
         <v>44851</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33">
         <v>44857</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33">
         <v>44864</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33">
+        <v>44871</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="14">
+        <v>44878</v>
+      </c>
+      <c r="O1" s="23">
+        <v>44885</v>
+      </c>
+      <c r="P1" s="23">
+        <v>44899</v>
+      </c>
+      <c r="Q1" s="23">
+        <v>44906</v>
+      </c>
+      <c r="R1" s="21">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -835,8 +930,14 @@
       <c r="D2" s="15"/>
       <c r="F2" s="15"/>
       <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -845,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -853,8 +954,11 @@
       <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="17">
+        <v>47205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -869,8 +973,16 @@
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="17">
+        <v>47206</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -883,8 +995,16 @@
       <c r="D6" s="15"/>
       <c r="F6" s="15"/>
       <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17">
+        <v>47207</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -894,8 +1014,14 @@
       <c r="D7" s="15"/>
       <c r="F7" s="15"/>
       <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -904,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -912,8 +1038,11 @@
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="17">
+        <v>47208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -923,8 +1052,14 @@
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
       <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -932,8 +1067,11 @@
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="22">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -942,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -955,8 +1093,16 @@
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
       <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="27">
+        <v>47210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>7</v>
       </c>
@@ -966,8 +1112,14 @@
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -975,15 +1127,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N16" s="17">
+        <v>47211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -991,7 +1146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
@@ -1001,8 +1156,14 @@
       <c r="D18" s="15"/>
       <c r="F18" s="15"/>
       <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1010,7 +1171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1023,8 +1184,11 @@
       <c r="I20" s="2">
         <v>13621</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N20" s="22">
+        <v>47212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1035,7 +1199,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1050,8 +1214,16 @@
       </c>
       <c r="F22" s="15"/>
       <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="26">
+        <v>47213</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+    </row>
+    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1064,8 +1236,16 @@
       <c r="D23" s="15"/>
       <c r="F23" s="15"/>
       <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="27">
+        <v>47214</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>11</v>
       </c>
@@ -1075,8 +1255,14 @@
       <c r="D24" s="15"/>
       <c r="F24" s="15"/>
       <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1085,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1093,15 +1279,18 @@
       <c r="C26" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="27">
+        <v>47215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
       <c r="B27" s="7">
         <v>12</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="15"/>
@@ -1116,8 +1305,15 @@
       <c r="K27" s="19">
         <v>40728</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="15"/>
+      <c r="N27" s="17">
+        <v>47216</v>
+      </c>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>13</v>
       </c>
@@ -1127,8 +1323,14 @@
       <c r="D28" s="15"/>
       <c r="F28" s="15"/>
       <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1137,7 +1339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1146,7 +1348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1155,7 +1357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1166,410 +1368,631 @@
       <c r="G32" s="2">
         <v>33483</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="26">
+        <v>47217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>25</v>
       </c>
       <c r="B33" s="7">
         <v>14</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="18">
-        <v>45248</v>
-      </c>
+      <c r="D33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="2">
-        <v>38948</v>
-      </c>
       <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7">
-        <v>15</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>26</v>
-      </c>
-      <c r="B35" s="9"/>
+      <c r="K33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="16"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+    </row>
+    <row r="35" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="4">
-        <v>38949</v>
-      </c>
-      <c r="H35" s="22">
-        <v>34516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>27</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>28</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="2">
+        <v>48394</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="27">
+        <v>47218</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+    </row>
+    <row r="36" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="16"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="12" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="D37" s="18">
+        <v>45248</v>
       </c>
       <c r="G37" s="2">
-        <v>16821</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>29</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7">
-        <v>16</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>15</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>26</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="4">
+        <v>38949</v>
+      </c>
+      <c r="H39" s="19">
+        <v>34516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="2">
+        <v>16821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>29</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="29">
+        <v>47219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>16</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" s="27">
+        <v>47220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>31</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D45" s="17">
         <v>38950</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
         <v>32</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>33</v>
-      </c>
-      <c r="B43" s="7">
-        <v>17</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="4">
-        <v>39762</v>
-      </c>
-      <c r="F43" s="18">
-        <v>37373</v>
-      </c>
-      <c r="G43" s="2">
-        <v>37372</v>
-      </c>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>34</v>
-      </c>
-      <c r="B44" s="7">
-        <v>18</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="4">
-        <v>35992</v>
-      </c>
-      <c r="F44" s="18">
-        <v>40734</v>
-      </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="7">
-        <v>19</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>35</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>36</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>33</v>
+      </c>
+      <c r="B47" s="7">
+        <v>17</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="4">
+        <v>39762</v>
+      </c>
+      <c r="F47" s="18">
+        <v>37373</v>
+      </c>
+      <c r="G47" s="2">
+        <v>37372</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="30">
+        <v>47221</v>
+      </c>
+      <c r="Q47" s="24"/>
+    </row>
+    <row r="48" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>34</v>
+      </c>
       <c r="B48" s="7">
-        <v>20</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="4">
+        <v>35992</v>
+      </c>
+      <c r="F48" s="18">
+        <v>40734</v>
+      </c>
       <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>37</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="2">
+        <v>40993</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="27">
+        <v>47222</v>
+      </c>
+      <c r="Q48" s="24"/>
+    </row>
+    <row r="49" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>19</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>36</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="7">
-        <v>21</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
-        <v>39</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
+        <v>20</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>38</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7">
-        <v>22</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
-        <v>23</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D55" s="15"/>
       <c r="F55" s="15"/>
       <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="7">
+        <v>22</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="4">
+        <v>47583</v>
+      </c>
+      <c r="M58" s="17">
+        <v>47601</v>
+      </c>
+      <c r="N58" s="15"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="27">
+        <v>47226</v>
+      </c>
+      <c r="Q58" s="24"/>
+    </row>
+    <row r="59" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="7">
+        <v>23</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>45</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R60" s="31">
+        <v>40998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>46</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
         <v>47</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="12" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
         <v>48</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="12" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="R63" s="31">
+        <v>46981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
         <v>49</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B64" s="7">
         <v>24</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="D64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="2">
+        <v>27421</v>
+      </c>
+      <c r="M64" s="17">
+        <v>27699</v>
+      </c>
+      <c r="N64" s="17">
+        <v>33196</v>
+      </c>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="30">
+        <v>47228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
         <v>50</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B65" s="7">
         <v>25</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="D65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="27">
+        <v>27422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
         <v>51</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B66" s="7">
         <v>26</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="D66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+    </row>
+    <row r="67" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
         <v>52</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B67" s="7">
         <v>27</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
     </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B72" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=17320" xr:uid="{6E199988-EFAE-4001-8D50-712F42EA03C9}"/>
     <hyperlink ref="D22" r:id="rId2" display="https://inf-ege.sdamgia.ru/problem?id=27518" xr:uid="{30599447-8B4C-4C21-8D2A-3EB714FA0CB9}"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://inf-ege.sdamgia.ru/problem?id=38950" xr:uid="{1C09D066-B8E4-4B0E-BB4C-E1688CF295BF}"/>
-    <hyperlink ref="D33" r:id="rId4" display="https://inf-ege.sdamgia.ru/problem?id=45248" xr:uid="{CB45A12C-6EB5-4061-A75B-F310A84C16ED}"/>
-    <hyperlink ref="E44" r:id="rId5" display="https://inf-ege.sdamgia.ru/problem?id=35992" xr:uid="{F0FA48CC-6AE3-4EE5-8873-E7DE45BEE9F6}"/>
-    <hyperlink ref="F44" r:id="rId6" display="https://inf-ege.sdamgia.ru/problem?id=40734" xr:uid="{08D51E11-A14B-4204-A605-16D35C95F962}"/>
-    <hyperlink ref="E43" r:id="rId7" display="https://inf-ege.sdamgia.ru/problem?id=39762" xr:uid="{02E1BDCD-1E3E-4EAD-9ED7-1C423757F4A2}"/>
-    <hyperlink ref="G43" r:id="rId8" display="https://inf-ege.sdamgia.ru/problem?id=37372" xr:uid="{B606E77D-BEEE-4177-B2BC-789E1B5F0C13}"/>
-    <hyperlink ref="F43" r:id="rId9" display="https://inf-ege.sdamgia.ru/problem?id=37373" xr:uid="{511EDE11-A2CF-485D-A3B8-90E7197FEC35}"/>
-    <hyperlink ref="G35" r:id="rId10" display="https://inf-ege.sdamgia.ru/problem?id=38949" xr:uid="{F4034074-E614-45C3-BED2-EE660733B254}"/>
-    <hyperlink ref="H35" r:id="rId11" display="https://inf-ege.sdamgia.ru/problem?id=34516" xr:uid="{B37012A6-9CBB-4F60-B6E6-70EEA6E85900}"/>
-    <hyperlink ref="G37" r:id="rId12" display="https://inf-ege.sdamgia.ru/problem?id=16821" xr:uid="{3032177C-B964-47A6-BE8A-990902AE2EF1}"/>
-    <hyperlink ref="G33" r:id="rId13" display="https://inf-ege.sdamgia.ru/problem?id=38948" xr:uid="{D8663CF8-2A89-4AED-9DBE-C3CED4AB1BF9}"/>
-    <hyperlink ref="G32" r:id="rId14" display="https://inf-ege.sdamgia.ru/problem?id=33483" xr:uid="{3A489FB2-C069-4DF9-B32A-62CE1C38B726}"/>
-    <hyperlink ref="G21" r:id="rId15" display="https://inf-ege.sdamgia.ru/problem?id=5087" xr:uid="{06A3A6BD-08B9-4334-AA4C-D18D7F8C0C42}"/>
-    <hyperlink ref="G20" r:id="rId16" display="https://inf-ege.sdamgia.ru/problem?id=36021" xr:uid="{75535224-1F34-4342-B850-06073954A690}"/>
-    <hyperlink ref="I20" r:id="rId17" display="https://inf-ege.sdamgia.ru/problem?id=13621" xr:uid="{DD435065-6092-4F28-83E5-A10F95B96E1F}"/>
-    <hyperlink ref="I27" r:id="rId18" display="https://inf-ege.sdamgia.ru/problem?id=11243" xr:uid="{BF60604B-97DF-4D5F-94CF-60CA9E53BA8B}"/>
-    <hyperlink ref="J27" r:id="rId19" display="https://inf-ege.sdamgia.ru/problem?id=47009" xr:uid="{DFFF076C-3C5B-4C22-9DA7-3A1B27FC1D32}"/>
-    <hyperlink ref="K27" r:id="rId20" display="https://inf-ege.sdamgia.ru/problem?id=40728" xr:uid="{38762A31-B80D-4609-BA56-E5629D57BF34}"/>
+    <hyperlink ref="D45" r:id="rId3" display="https://inf-ege.sdamgia.ru/problem?id=38950" xr:uid="{1C09D066-B8E4-4B0E-BB4C-E1688CF295BF}"/>
+    <hyperlink ref="E48" r:id="rId4" display="https://inf-ege.sdamgia.ru/problem?id=35992" xr:uid="{F0FA48CC-6AE3-4EE5-8873-E7DE45BEE9F6}"/>
+    <hyperlink ref="F48" r:id="rId5" display="https://inf-ege.sdamgia.ru/problem?id=40734" xr:uid="{08D51E11-A14B-4204-A605-16D35C95F962}"/>
+    <hyperlink ref="E47" r:id="rId6" display="https://inf-ege.sdamgia.ru/problem?id=39762" xr:uid="{02E1BDCD-1E3E-4EAD-9ED7-1C423757F4A2}"/>
+    <hyperlink ref="G47" r:id="rId7" display="https://inf-ege.sdamgia.ru/problem?id=37372" xr:uid="{B606E77D-BEEE-4177-B2BC-789E1B5F0C13}"/>
+    <hyperlink ref="F47" r:id="rId8" display="https://inf-ege.sdamgia.ru/problem?id=37373" xr:uid="{511EDE11-A2CF-485D-A3B8-90E7197FEC35}"/>
+    <hyperlink ref="G39" r:id="rId9" display="https://inf-ege.sdamgia.ru/problem?id=38949" xr:uid="{F4034074-E614-45C3-BED2-EE660733B254}"/>
+    <hyperlink ref="H39" r:id="rId10" display="https://inf-ege.sdamgia.ru/problem?id=34516" xr:uid="{B37012A6-9CBB-4F60-B6E6-70EEA6E85900}"/>
+    <hyperlink ref="G41" r:id="rId11" display="https://inf-ege.sdamgia.ru/problem?id=16821" xr:uid="{3032177C-B964-47A6-BE8A-990902AE2EF1}"/>
+    <hyperlink ref="G32" r:id="rId12" display="https://inf-ege.sdamgia.ru/problem?id=33483" xr:uid="{3A489FB2-C069-4DF9-B32A-62CE1C38B726}"/>
+    <hyperlink ref="G21" r:id="rId13" display="https://inf-ege.sdamgia.ru/problem?id=5087" xr:uid="{06A3A6BD-08B9-4334-AA4C-D18D7F8C0C42}"/>
+    <hyperlink ref="G20" r:id="rId14" display="https://inf-ege.sdamgia.ru/problem?id=36021" xr:uid="{75535224-1F34-4342-B850-06073954A690}"/>
+    <hyperlink ref="I20" r:id="rId15" display="https://inf-ege.sdamgia.ru/problem?id=13621" xr:uid="{DD435065-6092-4F28-83E5-A10F95B96E1F}"/>
+    <hyperlink ref="I27" r:id="rId16" display="https://inf-ege.sdamgia.ru/problem?id=11243" xr:uid="{BF60604B-97DF-4D5F-94CF-60CA9E53BA8B}"/>
+    <hyperlink ref="J27" r:id="rId17" display="https://inf-ege.sdamgia.ru/problem?id=47009" xr:uid="{DFFF076C-3C5B-4C22-9DA7-3A1B27FC1D32}"/>
+    <hyperlink ref="K27" r:id="rId18" display="https://inf-ege.sdamgia.ru/problem?id=40728" xr:uid="{38762A31-B80D-4609-BA56-E5629D57BF34}"/>
+    <hyperlink ref="I48" r:id="rId19" display="https://inf-ege.sdamgia.ru/problem?id=40993" xr:uid="{826CE579-4793-4078-9354-3C404F01B534}"/>
+    <hyperlink ref="D37" r:id="rId20" display="https://inf-ege.sdamgia.ru/problem?id=45248" xr:uid="{F469D58C-B55E-44F0-8C18-D42B71638B37}"/>
+    <hyperlink ref="G37" r:id="rId21" display="https://inf-ege.sdamgia.ru/problem?id=38948" xr:uid="{17484EA1-C4AD-45E4-A402-12A7F59CC6BA}"/>
+    <hyperlink ref="L35" r:id="rId22" display="https://inf-ege.sdamgia.ru/problem?id=48394" xr:uid="{2D0933B4-13F7-467C-ACB8-B270054392DB}"/>
+    <hyperlink ref="L58" r:id="rId23" display="https://inf-ege.sdamgia.ru/problem?id=47583" xr:uid="{29FC2376-F5C9-4AEB-92C1-D8C2791DDC12}"/>
+    <hyperlink ref="M58" r:id="rId24" display="https://inf-ege.sdamgia.ru/problem?id=47601" xr:uid="{0B7FE264-E833-4B64-92BC-1C95A864C42F}"/>
+    <hyperlink ref="L64" r:id="rId25" display="https://inf-ege.sdamgia.ru/problem?id=27421" xr:uid="{6117178E-6293-4F90-B420-A65F7538A521}"/>
+    <hyperlink ref="M64" r:id="rId26" display="https://inf-ege.sdamgia.ru/problem?id=27699" xr:uid="{2757B326-D478-46BE-85F5-08D2DB62C29F}"/>
+    <hyperlink ref="N64" r:id="rId27" display="https://inf-ege.sdamgia.ru/problem?id=33196" xr:uid="{3B66B863-FBD7-409A-AF35-8572AC9125B6}"/>
+    <hyperlink ref="N27" r:id="rId28" display="https://inf-ege.sdamgia.ru/problem?id=47216" xr:uid="{629F8B4E-CD40-4B70-B979-DECE2BEF0847}"/>
+    <hyperlink ref="N4" r:id="rId29" display="https://inf-ege.sdamgia.ru/problem?id=47205" xr:uid="{ED95EE3C-1EB0-46E0-83B3-D76D8D00C239}"/>
+    <hyperlink ref="N5" r:id="rId30" display="https://inf-ege.sdamgia.ru/problem?id=47206" xr:uid="{F1714D50-D614-4577-ABE4-7BCC8F296F5D}"/>
+    <hyperlink ref="N6" r:id="rId31" display="https://inf-ege.sdamgia.ru/problem?id=47207" xr:uid="{85B681B2-337E-49A7-B433-C7D1A5D93BC9}"/>
+    <hyperlink ref="N9" r:id="rId32" display="https://inf-ege.sdamgia.ru/problem?id=47208" xr:uid="{CCDB60E6-975C-4BC7-8DFA-6B410426E51A}"/>
+    <hyperlink ref="N11" r:id="rId33" display="https://inf-ege.sdamgia.ru/problem?id=47209" xr:uid="{122EA7FB-0232-484B-A422-2E32786128F5}"/>
+    <hyperlink ref="N16" r:id="rId34" display="https://inf-ege.sdamgia.ru/problem?id=47211" xr:uid="{FDFA775F-81D5-45DC-846A-9DEE7AACBD3E}"/>
+    <hyperlink ref="N20" r:id="rId35" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{EFF0EF57-9542-4BA6-BEA0-FDF44B553CEE}"/>
+    <hyperlink ref="O22" r:id="rId36" display="https://inf-ege.sdamgia.ru/problem?id=47213" xr:uid="{5AD746E3-CA47-4EAC-8F1C-E2978EEFD6D0}"/>
+    <hyperlink ref="O23" r:id="rId37" display="https://inf-ege.sdamgia.ru/problem?id=47214" xr:uid="{5D118A38-F1CE-4CE6-B8D3-CFDCA52CD885}"/>
+    <hyperlink ref="O26" r:id="rId38" display="https://inf-ege.sdamgia.ru/problem?id=47215" xr:uid="{D133364C-86D5-4DB1-9AC0-C53F89DF07D5}"/>
+    <hyperlink ref="O32" r:id="rId39" display="https://inf-ege.sdamgia.ru/problem?id=47217" xr:uid="{B5D5A7CC-74A6-4E53-B19A-36F4FBDF4992}"/>
+    <hyperlink ref="O35" r:id="rId40" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{FFBE0CB0-8DED-47B3-80D0-E71FE1D30789}"/>
+    <hyperlink ref="O42" r:id="rId41" display="https://inf-ege.sdamgia.ru/problem?id=47219" xr:uid="{EC10FAE1-F217-4EE7-B382-EA0AEA63E6AF}"/>
+    <hyperlink ref="O44" r:id="rId42" display="https://inf-ege.sdamgia.ru/problem?id=47220" xr:uid="{55261B34-A2E2-4002-8A6F-346BE86F59F1}"/>
+    <hyperlink ref="P47" r:id="rId43" display="https://inf-ege.sdamgia.ru/problem?id=47221" xr:uid="{C333984F-A11E-41AF-8EC8-4576EDD46844}"/>
+    <hyperlink ref="P48" r:id="rId44" display="https://inf-ege.sdamgia.ru/problem?id=47222" xr:uid="{D09989B7-914A-451D-BEDA-DAB1541FABF6}"/>
+    <hyperlink ref="P58" r:id="rId45" display="https://inf-ege.sdamgia.ru/problem?id=47226" xr:uid="{10CF7928-7617-4839-BD15-48BD5F99CCE8}"/>
+    <hyperlink ref="Q64" r:id="rId46" display="https://inf-ege.sdamgia.ru/problem?id=47228" xr:uid="{568AE1DE-9AF5-4BA4-876C-0A90C5DBA06C}"/>
+    <hyperlink ref="Q65" r:id="rId47" display="https://inf-ege.sdamgia.ru/problem?id=27422" xr:uid="{5B2F220B-493D-48DA-94EB-63D18B065FD9}"/>
+    <hyperlink ref="Q13" r:id="rId48" display="https://inf-ege.sdamgia.ru/problem?id=47210" xr:uid="{D8C136CC-8D9A-41B6-A61E-84667AFC69A4}"/>
+    <hyperlink ref="R63" r:id="rId49" display="https://inf-ege.sdamgia.ru/problem?id=46981" xr:uid="{0E9DAD93-AA11-4807-A087-4FAAA6427DA8}"/>
+    <hyperlink ref="R60" r:id="rId50" display="https://inf-ege.sdamgia.ru/problem?id=40998" xr:uid="{37AD5860-6443-4962-8E1C-31540F8F269E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Игнат Смотрицкий.xlsx
+++ b/ЕГЭ Игнат Смотрицкий.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60302A-34FC-44A2-A31D-E775B2205EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E5079-6F14-4859-A55A-C4B3BEAE0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,14 +309,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -357,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -504,17 +496,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -544,7 +550,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -556,7 +561,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,12 +574,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -855,10 +864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,51 +888,68 @@
     <col min="12" max="12" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="15" max="15" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D1" s="14">
         <v>44848</v>
       </c>
-      <c r="E1" s="32">
+      <c r="E1" s="34">
         <v>44851</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35">
         <v>44857</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35">
         <v>44864</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35">
         <v>44871</v>
       </c>
-      <c r="M1" s="33"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="14">
         <v>44878</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="22">
         <v>44885</v>
       </c>
-      <c r="P1" s="23">
+      <c r="P1" s="22">
         <v>44899</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="Q1" s="22">
         <v>44906</v>
       </c>
-      <c r="R1" s="21">
+      <c r="R1" s="34">
         <v>44913</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="35"/>
+      <c r="T1" s="14">
+        <v>44920</v>
+      </c>
+      <c r="U1" s="22">
+        <v>44941</v>
+      </c>
+      <c r="V1" s="22">
+        <v>44948</v>
+      </c>
+      <c r="W1" s="22">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -933,11 +962,16 @@
       <c r="K2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -946,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -957,8 +991,9 @@
       <c r="N4" s="17">
         <v>47205</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="30"/>
+    </row>
+    <row r="5" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -978,11 +1013,16 @@
       <c r="N5" s="17">
         <v>47206</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+    </row>
+    <row r="6" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1000,11 +1040,16 @@
       <c r="N6" s="17">
         <v>47207</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-    </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+    </row>
+    <row r="7" spans="1:23" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1017,11 +1062,16 @@
       <c r="K7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="8" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1030,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1041,8 +1091,9 @@
       <c r="N9" s="17">
         <v>47208</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1055,11 +1106,16 @@
       <c r="K10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+    </row>
+    <row r="11" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -1067,11 +1123,15 @@
       <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <v>47209</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T11" s="17">
+        <v>33475</v>
+      </c>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1080,7 +1140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -1096,13 +1156,18 @@
       <c r="K13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="27">
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="26">
         <v>47210</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+    </row>
+    <row r="14" spans="1:23" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>7</v>
       </c>
@@ -1115,11 +1180,16 @@
       <c r="K14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1127,7 +1197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -1137,8 +1207,9 @@
       <c r="N16" s="17">
         <v>47211</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -1146,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
@@ -1159,11 +1230,16 @@
       <c r="K18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1171,7 +1247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1184,11 +1260,20 @@
       <c r="I20" s="2">
         <v>13621</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <v>47212</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="5">
+        <v>46966</v>
+      </c>
+      <c r="T20" s="17">
+        <v>37143</v>
+      </c>
+      <c r="W20" s="25">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1198,8 +1283,9 @@
       <c r="G21" s="2">
         <v>5087</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="31"/>
+    </row>
+    <row r="22" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1217,13 +1303,22 @@
       <c r="K22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="26">
+      <c r="O22" s="25">
         <v>47213</v>
       </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-    </row>
-    <row r="23" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="17">
+        <v>36022</v>
+      </c>
+      <c r="U22" s="23"/>
+      <c r="V22" s="31"/>
+      <c r="X22" s="26">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1239,13 +1334,18 @@
       <c r="K23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="27">
+      <c r="O23" s="26">
         <v>47214</v>
       </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-    </row>
-    <row r="24" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="23"/>
+    </row>
+    <row r="24" spans="1:24" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>11</v>
       </c>
@@ -1258,11 +1358,16 @@
       <c r="K24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1271,7 +1376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1279,11 +1384,12 @@
       <c r="C26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <v>47215</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="30"/>
+    </row>
+    <row r="27" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -1309,11 +1415,18 @@
       <c r="N27" s="17">
         <v>47216</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="19">
+        <v>46970</v>
+      </c>
+      <c r="U27" s="23"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="23"/>
+    </row>
+    <row r="28" spans="1:24" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>13</v>
       </c>
@@ -1326,11 +1439,16 @@
       <c r="K28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1339,7 +1457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1348,7 +1466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1356,8 +1474,9 @@
       <c r="C31" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V31" s="30"/>
+    </row>
+    <row r="32" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1368,11 +1487,14 @@
       <c r="G32" s="2">
         <v>33483</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="25">
         <v>47217</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="19">
+        <v>47010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -1388,11 +1510,16 @@
       <c r="K33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-    </row>
-    <row r="34" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+    </row>
+    <row r="34" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="12" t="s">
         <v>63</v>
       </c>
@@ -1406,11 +1533,16 @@
       <c r="K34" s="16"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-    </row>
-    <row r="35" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+    </row>
+    <row r="35" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="12" t="s">
         <v>64</v>
       </c>
@@ -1427,13 +1559,18 @@
       </c>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="27">
+      <c r="O35" s="26">
         <v>47218</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-    </row>
-    <row r="36" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+    </row>
+    <row r="36" spans="1:23" s="12" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="12" t="s">
         <v>65</v>
       </c>
@@ -1447,11 +1584,16 @@
       <c r="K36" s="16"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="27"/>
+    </row>
+    <row r="37" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="12" t="s">
         <v>66</v>
@@ -1463,7 +1605,7 @@
         <v>38948</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>15</v>
       </c>
@@ -1476,11 +1618,16 @@
       <c r="K38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>26</v>
       </c>
@@ -1495,7 +1642,7 @@
         <v>34516</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>27</v>
       </c>
@@ -1504,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>28</v>
       </c>
@@ -1516,7 +1663,7 @@
         <v>16821</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>29</v>
       </c>
@@ -1524,11 +1671,12 @@
       <c r="C42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="28">
         <v>47219</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V42" s="31"/>
+    </row>
+    <row r="43" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>16</v>
       </c>
@@ -1541,11 +1689,16 @@
       <c r="K43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>30</v>
       </c>
@@ -1553,11 +1706,12 @@
       <c r="C44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="26">
         <v>47220</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V44" s="30"/>
+    </row>
+    <row r="45" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>31</v>
       </c>
@@ -1569,7 +1723,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>32</v>
       </c>
@@ -1578,7 +1732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>33</v>
       </c>
@@ -1602,13 +1756,20 @@
       <c r="K47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="30">
+      <c r="O47" s="23"/>
+      <c r="P47" s="29">
         <v>47221</v>
       </c>
-      <c r="Q47" s="24"/>
-    </row>
-    <row r="48" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q47" s="23"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="21">
+        <v>37369</v>
+      </c>
+      <c r="U47" s="23"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="23"/>
+    </row>
+    <row r="48" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>34</v>
       </c>
@@ -1632,13 +1793,18 @@
       <c r="K48" s="15"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="27">
+      <c r="O48" s="23"/>
+      <c r="P48" s="26">
         <v>47222</v>
       </c>
-      <c r="Q48" s="24"/>
-    </row>
-    <row r="49" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q48" s="23"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="30"/>
+    </row>
+    <row r="49" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>19</v>
       </c>
@@ -1651,11 +1817,16 @@
       <c r="K49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>35</v>
       </c>
@@ -1663,8 +1834,9 @@
       <c r="C50" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>36</v>
       </c>
@@ -1673,7 +1845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>20</v>
       </c>
@@ -1686,11 +1858,16 @@
       <c r="K52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>37</v>
       </c>
@@ -1698,8 +1875,9 @@
       <c r="C53" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>38</v>
       </c>
@@ -1708,7 +1886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>21</v>
       </c>
@@ -1721,11 +1899,16 @@
       <c r="K55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>39</v>
       </c>
@@ -1733,8 +1916,9 @@
       <c r="C56" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>40</v>
       </c>
@@ -1743,7 +1927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>22</v>
       </c>
@@ -1761,13 +1945,18 @@
         <v>47601</v>
       </c>
       <c r="N58" s="15"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="27">
+      <c r="O58" s="23"/>
+      <c r="P58" s="26">
         <v>47226</v>
       </c>
-      <c r="Q58" s="24"/>
-    </row>
-    <row r="59" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q58" s="23"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="30"/>
+    </row>
+    <row r="59" spans="1:24" s="6" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>23</v>
       </c>
@@ -1780,11 +1969,16 @@
       <c r="K59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>45</v>
       </c>
@@ -1792,11 +1986,12 @@
       <c r="C60" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R60" s="31">
+      <c r="R60" s="4">
         <v>40998</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="W60" s="30"/>
+    </row>
+    <row r="61" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>46</v>
       </c>
@@ -1805,7 +2000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>47</v>
       </c>
@@ -1813,8 +2008,14 @@
       <c r="C62" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R62" s="4">
+        <v>37158</v>
+      </c>
+      <c r="S62" s="17">
+        <v>47227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>48</v>
       </c>
@@ -1822,11 +2023,11 @@
       <c r="C63" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="R63" s="31">
+      <c r="R63" s="4">
         <v>46981</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>49</v>
       </c>
@@ -1849,13 +2050,18 @@
       <c r="N64" s="17">
         <v>33196</v>
       </c>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="30">
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="29">
         <v>47228</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="30"/>
+    </row>
+    <row r="65" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>50</v>
       </c>
@@ -1871,13 +2077,18 @@
       <c r="K65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="27">
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="26">
         <v>27422</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="30"/>
+    </row>
+    <row r="66" spans="1:23" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>51</v>
       </c>
@@ -1893,11 +2104,16 @@
       <c r="K66" s="15"/>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-    </row>
-    <row r="67" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+    </row>
+    <row r="67" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>52</v>
       </c>
@@ -1913,31 +2129,37 @@
       <c r="K67" s="15"/>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=17320" xr:uid="{6E199988-EFAE-4001-8D50-712F42EA03C9}"/>
@@ -1990,9 +2212,19 @@
     <hyperlink ref="Q13" r:id="rId48" display="https://inf-ege.sdamgia.ru/problem?id=47210" xr:uid="{D8C136CC-8D9A-41B6-A61E-84667AFC69A4}"/>
     <hyperlink ref="R63" r:id="rId49" display="https://inf-ege.sdamgia.ru/problem?id=46981" xr:uid="{0E9DAD93-AA11-4807-A087-4FAAA6427DA8}"/>
     <hyperlink ref="R60" r:id="rId50" display="https://inf-ege.sdamgia.ru/problem?id=40998" xr:uid="{37AD5860-6443-4962-8E1C-31540F8F269E}"/>
+    <hyperlink ref="R62" r:id="rId51" display="https://inf-ege.sdamgia.ru/problem?id=37158" xr:uid="{21741BE1-379D-4DC9-B92C-492F0145CC2E}"/>
+    <hyperlink ref="S62" r:id="rId52" display="https://inf-ege.sdamgia.ru/problem?id=47227" xr:uid="{14AA29E1-4C11-4B44-9621-85B7F2C794CD}"/>
+    <hyperlink ref="R20" r:id="rId53" display="https://inf-ege.sdamgia.ru/problem?id=46966" xr:uid="{671B6441-333A-4DD5-8830-4B05F6F7295A}"/>
+    <hyperlink ref="T11" r:id="rId54" display="https://inf-ege.sdamgia.ru/problem?id=33475" xr:uid="{1F581D2E-5684-4FFD-81D5-93AE98D2E2C4}"/>
+    <hyperlink ref="T27" r:id="rId55" display="https://inf-ege.sdamgia.ru/problem?id=46970" xr:uid="{C7FD2DAC-E930-4EBD-908D-5B82799E319C}"/>
+    <hyperlink ref="T20" r:id="rId56" display="https://inf-ege.sdamgia.ru/problem?id=37143" xr:uid="{4095CD0C-B7CC-48BB-9DE9-6EF2F7FB2C5B}"/>
+    <hyperlink ref="T22" r:id="rId57" display="https://inf-ege.sdamgia.ru/problem?id=36022" xr:uid="{1B03DB3B-FA2E-457F-AC30-507159AB8E18}"/>
+    <hyperlink ref="T32" r:id="rId58" display="https://inf-ege.sdamgia.ru/problem?id=47010" xr:uid="{BC2120E8-2CDF-4FEF-9831-A33D11711142}"/>
+    <hyperlink ref="T47" r:id="rId59" display="https://inf-ege.sdamgia.ru/problem?id=37369" xr:uid="{B13DE64C-99C4-49C5-A0FC-DA7C96251AC0}"/>
+    <hyperlink ref="X22" r:id="rId60" display="https://inf-ege.sdamgia.ru/problem?id=45243" xr:uid="{6741D8AA-33F5-4996-BEE2-07DBAF327914}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Игнат Смотрицкий.xlsx
+++ b/ЕГЭ Игнат Смотрицкий.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E5079-6F14-4859-A55A-C4B3BEAE0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6180198-8CEF-4040-A2B4-3894D24BDAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Анализ информационных моделей</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Прямое сложение в СС</t>
+  </si>
+  <si>
+    <t>СтатГ</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -567,6 +570,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y42" sqref="Y42"/>
+      <selection pane="bottomRight" activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,30 +900,39 @@
     <col min="20" max="20" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="8"/>
+    <col min="24" max="24" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D1" s="14">
         <v>44848</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="35">
         <v>44851</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36">
         <v>44857</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36">
         <v>44864</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36">
         <v>44871</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="14">
         <v>44878</v>
       </c>
@@ -932,10 +945,10 @@
       <c r="Q1" s="22">
         <v>44906</v>
       </c>
-      <c r="R1" s="34">
+      <c r="R1" s="35">
         <v>44913</v>
       </c>
-      <c r="S1" s="35"/>
+      <c r="S1" s="36"/>
       <c r="T1" s="14">
         <v>44920</v>
       </c>
@@ -948,8 +961,29 @@
       <c r="W1" s="22">
         <v>44955</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="22">
+        <v>44962</v>
+      </c>
+      <c r="Y1" s="35">
+        <v>44969</v>
+      </c>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="14">
+        <v>44976</v>
+      </c>
+      <c r="AB1" s="22">
+        <v>44983</v>
+      </c>
+      <c r="AC1" s="35">
+        <v>44990</v>
+      </c>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36">
+        <v>45004</v>
+      </c>
+      <c r="AF1" s="36"/>
+    </row>
+    <row r="2" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>1</v>
       </c>
@@ -970,8 +1004,14 @@
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
-    </row>
-    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X2" s="23"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="23"/>
+      <c r="AD2" s="15"/>
+      <c r="AF2" s="15"/>
+    </row>
+    <row r="3" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -980,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -993,7 +1033,7 @@
       </c>
       <c r="U4" s="30"/>
     </row>
-    <row r="5" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1021,8 +1061,14 @@
       <c r="U5" s="30"/>
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
-    </row>
-    <row r="6" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X5" s="23"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="23"/>
+      <c r="AD5" s="15"/>
+      <c r="AF5" s="15"/>
+    </row>
+    <row r="6" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1048,8 +1094,14 @@
       <c r="U6" s="30"/>
       <c r="V6" s="23"/>
       <c r="W6" s="23"/>
-    </row>
-    <row r="7" spans="1:23" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="23"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="23"/>
+      <c r="AD6" s="15"/>
+      <c r="AF6" s="15"/>
+    </row>
+    <row r="7" spans="1:32" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1070,8 +1122,14 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
-    </row>
-    <row r="8" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X7" s="23"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="23"/>
+      <c r="AD7" s="15"/>
+      <c r="AF7" s="15"/>
+    </row>
+    <row r="8" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1080,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1093,7 +1151,7 @@
       </c>
       <c r="U9" s="30"/>
     </row>
-    <row r="10" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1114,8 +1172,14 @@
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
-    </row>
-    <row r="11" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X10" s="23"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="23"/>
+      <c r="AD10" s="15"/>
+      <c r="AF10" s="15"/>
+    </row>
+    <row r="11" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -1131,7 +1195,7 @@
       </c>
       <c r="U11" s="30"/>
     </row>
-    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1140,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -1166,8 +1230,14 @@
       <c r="U13" s="30"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
-    </row>
-    <row r="14" spans="1:23" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X13" s="23"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="23"/>
+      <c r="AD13" s="15"/>
+      <c r="AF13" s="15"/>
+    </row>
+    <row r="14" spans="1:32" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>7</v>
       </c>
@@ -1188,8 +1258,14 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
-    </row>
-    <row r="15" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X14" s="23"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="23"/>
+      <c r="AD14" s="15"/>
+      <c r="AF14" s="15"/>
+    </row>
+    <row r="15" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1197,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -1209,7 +1285,7 @@
       </c>
       <c r="U16" s="30"/>
     </row>
-    <row r="17" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -1217,7 +1293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
@@ -1238,8 +1314,14 @@
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
-    </row>
-    <row r="19" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X18" s="23"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="23"/>
+      <c r="AD18" s="15"/>
+      <c r="AF18" s="15"/>
+    </row>
+    <row r="19" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1247,7 +1329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1263,17 +1345,32 @@
       <c r="N20" s="21">
         <v>47212</v>
       </c>
-      <c r="R20" s="5">
-        <v>46966</v>
-      </c>
       <c r="T20" s="17">
         <v>37143</v>
       </c>
       <c r="W20" s="25">
         <v>5268</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X20" s="33">
+        <v>46966</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>47005</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" s="19">
+        <v>40983</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>4613</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>33478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1285,7 +1382,7 @@
       </c>
       <c r="U21" s="31"/>
     </row>
-    <row r="22" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1317,8 +1414,13 @@
       <c r="X22" s="26">
         <v>45243</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="23"/>
+      <c r="AD22" s="15"/>
+      <c r="AF22" s="15"/>
+    </row>
+    <row r="23" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1344,8 +1446,14 @@
       <c r="U23" s="23"/>
       <c r="V23" s="30"/>
       <c r="W23" s="23"/>
-    </row>
-    <row r="24" spans="1:24" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X23" s="23"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="23"/>
+      <c r="AD23" s="15"/>
+      <c r="AF23" s="15"/>
+    </row>
+    <row r="24" spans="1:32" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>11</v>
       </c>
@@ -1366,8 +1474,14 @@
       <c r="U24" s="23"/>
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X24" s="23"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="23"/>
+      <c r="AD24" s="15"/>
+      <c r="AF24" s="15"/>
+    </row>
+    <row r="25" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1376,7 +1490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1389,7 +1503,7 @@
       </c>
       <c r="V26" s="30"/>
     </row>
-    <row r="27" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -1425,8 +1539,14 @@
       <c r="U27" s="23"/>
       <c r="V27" s="30"/>
       <c r="W27" s="23"/>
-    </row>
-    <row r="28" spans="1:24" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X27" s="23"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="23"/>
+      <c r="AD27" s="15"/>
+      <c r="AF27" s="15"/>
+    </row>
+    <row r="28" spans="1:32" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>13</v>
       </c>
@@ -1447,8 +1567,14 @@
       <c r="U28" s="23"/>
       <c r="V28" s="23"/>
       <c r="W28" s="23"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X28" s="23"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="23"/>
+      <c r="AD28" s="15"/>
+      <c r="AF28" s="15"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1457,7 +1583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1466,7 +1592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1476,7 +1602,7 @@
       </c>
       <c r="V31" s="30"/>
     </row>
-    <row r="32" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -1494,7 +1620,7 @@
         <v>47010</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -1518,8 +1644,14 @@
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
-    </row>
-    <row r="34" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X33" s="23"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="23"/>
+      <c r="AD33" s="15"/>
+      <c r="AF33" s="15"/>
+    </row>
+    <row r="34" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="12" t="s">
         <v>63</v>
       </c>
@@ -1541,8 +1673,14 @@
       <c r="U34" s="27"/>
       <c r="V34" s="27"/>
       <c r="W34" s="27"/>
-    </row>
-    <row r="35" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X34" s="27"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="27"/>
+      <c r="AD34" s="20"/>
+      <c r="AF34" s="20"/>
+    </row>
+    <row r="35" spans="1:32" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="12" t="s">
         <v>64</v>
       </c>
@@ -1569,8 +1707,14 @@
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
       <c r="W35" s="27"/>
-    </row>
-    <row r="36" spans="1:23" s="12" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X35" s="27"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="27"/>
+      <c r="AD35" s="20"/>
+      <c r="AF35" s="20"/>
+    </row>
+    <row r="36" spans="1:32" s="12" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="12" t="s">
         <v>65</v>
       </c>
@@ -1592,8 +1736,14 @@
       <c r="U36" s="27"/>
       <c r="V36" s="32"/>
       <c r="W36" s="27"/>
-    </row>
-    <row r="37" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X36" s="27"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="27"/>
+      <c r="AD36" s="20"/>
+      <c r="AF36" s="20"/>
+    </row>
+    <row r="37" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="12" t="s">
         <v>66</v>
@@ -1605,7 +1755,7 @@
         <v>38948</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>15</v>
       </c>
@@ -1626,8 +1776,14 @@
       <c r="U38" s="23"/>
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X38" s="23"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="23"/>
+      <c r="AD38" s="15"/>
+      <c r="AF38" s="15"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>26</v>
       </c>
@@ -1642,7 +1798,7 @@
         <v>34516</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>27</v>
       </c>
@@ -1651,7 +1807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>28</v>
       </c>
@@ -1663,7 +1819,7 @@
         <v>16821</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>29</v>
       </c>
@@ -1675,8 +1831,11 @@
         <v>47219</v>
       </c>
       <c r="V42" s="31"/>
-    </row>
-    <row r="43" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB42" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>16</v>
       </c>
@@ -1697,8 +1856,14 @@
       <c r="U43" s="23"/>
       <c r="V43" s="23"/>
       <c r="W43" s="23"/>
-    </row>
-    <row r="44" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X43" s="23"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="23"/>
+      <c r="AD43" s="15"/>
+      <c r="AF43" s="15"/>
+    </row>
+    <row r="44" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>30</v>
       </c>
@@ -1711,7 +1876,7 @@
       </c>
       <c r="V44" s="30"/>
     </row>
-    <row r="45" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>31</v>
       </c>
@@ -1723,7 +1888,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>32</v>
       </c>
@@ -1732,7 +1897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>33</v>
       </c>
@@ -1768,8 +1933,18 @@
       <c r="U47" s="23"/>
       <c r="V47" s="33"/>
       <c r="W47" s="23"/>
-    </row>
-    <row r="48" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X47" s="23"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="21">
+        <v>47014</v>
+      </c>
+      <c r="AB47" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD47" s="15"/>
+      <c r="AF47" s="15"/>
+    </row>
+    <row r="48" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>34</v>
       </c>
@@ -1803,8 +1978,14 @@
       <c r="U48" s="23"/>
       <c r="V48" s="23"/>
       <c r="W48" s="30"/>
-    </row>
-    <row r="49" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X48" s="23"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="23"/>
+      <c r="AD48" s="15"/>
+      <c r="AF48" s="15"/>
+    </row>
+    <row r="49" spans="1:32" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>19</v>
       </c>
@@ -1825,8 +2006,14 @@
       <c r="U49" s="23"/>
       <c r="V49" s="23"/>
       <c r="W49" s="23"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X49" s="23"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="23"/>
+      <c r="AD49" s="15"/>
+      <c r="AF49" s="15"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>35</v>
       </c>
@@ -1834,9 +2021,14 @@
       <c r="C50" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X50" s="5"/>
-    </row>
-    <row r="51" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X50" s="4">
+        <v>37154</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>36</v>
       </c>
@@ -1844,8 +2036,11 @@
       <c r="C51" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB51" s="25">
+        <v>27768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <v>20</v>
       </c>
@@ -1866,8 +2061,14 @@
       <c r="U52" s="23"/>
       <c r="V52" s="23"/>
       <c r="W52" s="23"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X52" s="23"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="23"/>
+      <c r="AD52" s="15"/>
+      <c r="AF52" s="15"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>37</v>
       </c>
@@ -1875,9 +2076,14 @@
       <c r="C53" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X53" s="5"/>
-    </row>
-    <row r="54" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X53" s="4">
+        <v>37155</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>38</v>
       </c>
@@ -1885,8 +2091,11 @@
       <c r="C54" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB54" s="25">
+        <v>27769</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>21</v>
       </c>
@@ -1907,8 +2116,14 @@
       <c r="U55" s="23"/>
       <c r="V55" s="23"/>
       <c r="W55" s="23"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X55" s="23"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="23"/>
+      <c r="AD55" s="15"/>
+      <c r="AF55" s="15"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>39</v>
       </c>
@@ -1916,9 +2131,14 @@
       <c r="C56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X56" s="5"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X56" s="4">
+        <v>37156</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>40</v>
       </c>
@@ -1926,8 +2146,11 @@
       <c r="C57" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB57" s="25">
+        <v>27770</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>22</v>
       </c>
@@ -1955,8 +2178,14 @@
       <c r="U58" s="23"/>
       <c r="V58" s="23"/>
       <c r="W58" s="30"/>
-    </row>
-    <row r="59" spans="1:24" s="6" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X58" s="23"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="23"/>
+      <c r="AD58" s="15"/>
+      <c r="AF58" s="15"/>
+    </row>
+    <row r="59" spans="1:32" s="6" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>23</v>
       </c>
@@ -1977,8 +2206,14 @@
       <c r="U59" s="23"/>
       <c r="V59" s="23"/>
       <c r="W59" s="23"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X59" s="23"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="23"/>
+      <c r="AD59" s="15"/>
+      <c r="AF59" s="15"/>
+    </row>
+    <row r="60" spans="1:32" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>45</v>
       </c>
@@ -1991,7 +2226,7 @@
       </c>
       <c r="W60" s="30"/>
     </row>
-    <row r="61" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>46</v>
       </c>
@@ -1999,8 +2234,11 @@
       <c r="C61" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA61" s="17">
+        <v>47020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>47</v>
       </c>
@@ -2015,7 +2253,7 @@
         <v>47227</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>48</v>
       </c>
@@ -2027,7 +2265,7 @@
         <v>46981</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>49</v>
       </c>
@@ -2060,8 +2298,14 @@
       <c r="U64" s="23"/>
       <c r="V64" s="23"/>
       <c r="W64" s="30"/>
-    </row>
-    <row r="65" spans="1:23" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X64" s="23"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="23"/>
+      <c r="AD64" s="15"/>
+      <c r="AF64" s="15"/>
+    </row>
+    <row r="65" spans="1:32" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>50</v>
       </c>
@@ -2087,8 +2331,14 @@
       <c r="U65" s="23"/>
       <c r="V65" s="23"/>
       <c r="W65" s="30"/>
-    </row>
-    <row r="66" spans="1:23" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X65" s="23"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="23"/>
+      <c r="AD65" s="15"/>
+      <c r="AF65" s="15"/>
+    </row>
+    <row r="66" spans="1:32" s="6" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>51</v>
       </c>
@@ -2112,8 +2362,21 @@
       <c r="U66" s="23"/>
       <c r="V66" s="23"/>
       <c r="W66" s="23"/>
-    </row>
-    <row r="67" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X66" s="23"/>
+      <c r="Y66" s="4">
+        <v>47230</v>
+      </c>
+      <c r="AA66" s="18">
+        <v>47023</v>
+      </c>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="2">
+        <v>46984</v>
+      </c>
+      <c r="AD66" s="15"/>
+      <c r="AF66" s="15"/>
+    </row>
+    <row r="67" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>52</v>
       </c>
@@ -2137,24 +2400,36 @@
       <c r="U67" s="23"/>
       <c r="V67" s="23"/>
       <c r="W67" s="23"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X67" s="23"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="23"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="4">
+        <v>47231</v>
+      </c>
+      <c r="AF67" s="15"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -2214,7 +2489,7 @@
     <hyperlink ref="R60" r:id="rId50" display="https://inf-ege.sdamgia.ru/problem?id=40998" xr:uid="{37AD5860-6443-4962-8E1C-31540F8F269E}"/>
     <hyperlink ref="R62" r:id="rId51" display="https://inf-ege.sdamgia.ru/problem?id=37158" xr:uid="{21741BE1-379D-4DC9-B92C-492F0145CC2E}"/>
     <hyperlink ref="S62" r:id="rId52" display="https://inf-ege.sdamgia.ru/problem?id=47227" xr:uid="{14AA29E1-4C11-4B44-9621-85B7F2C794CD}"/>
-    <hyperlink ref="R20" r:id="rId53" display="https://inf-ege.sdamgia.ru/problem?id=46966" xr:uid="{671B6441-333A-4DD5-8830-4B05F6F7295A}"/>
+    <hyperlink ref="X20" r:id="rId53" display="https://inf-ege.sdamgia.ru/problem?id=46966" xr:uid="{671B6441-333A-4DD5-8830-4B05F6F7295A}"/>
     <hyperlink ref="T11" r:id="rId54" display="https://inf-ege.sdamgia.ru/problem?id=33475" xr:uid="{1F581D2E-5684-4FFD-81D5-93AE98D2E2C4}"/>
     <hyperlink ref="T27" r:id="rId55" display="https://inf-ege.sdamgia.ru/problem?id=46970" xr:uid="{C7FD2DAC-E930-4EBD-908D-5B82799E319C}"/>
     <hyperlink ref="T20" r:id="rId56" display="https://inf-ege.sdamgia.ru/problem?id=37143" xr:uid="{4095CD0C-B7CC-48BB-9DE9-6EF2F7FB2C5B}"/>
@@ -2222,9 +2497,24 @@
     <hyperlink ref="T32" r:id="rId58" display="https://inf-ege.sdamgia.ru/problem?id=47010" xr:uid="{BC2120E8-2CDF-4FEF-9831-A33D11711142}"/>
     <hyperlink ref="T47" r:id="rId59" display="https://inf-ege.sdamgia.ru/problem?id=37369" xr:uid="{B13DE64C-99C4-49C5-A0FC-DA7C96251AC0}"/>
     <hyperlink ref="X22" r:id="rId60" display="https://inf-ege.sdamgia.ru/problem?id=45243" xr:uid="{6741D8AA-33F5-4996-BEE2-07DBAF327914}"/>
+    <hyperlink ref="X50" r:id="rId61" display="https://inf-ege.sdamgia.ru/problem?id=37154" xr:uid="{9DFBCDDC-C0DC-42FF-9C12-5E793C77CBCC}"/>
+    <hyperlink ref="X53" r:id="rId62" display="https://inf-ege.sdamgia.ru/problem?id=37155" xr:uid="{C6996C3B-6900-490F-A456-575214DDADD6}"/>
+    <hyperlink ref="X56" r:id="rId63" display="https://inf-ege.sdamgia.ru/problem?id=37156" xr:uid="{9082E7FD-4D98-4434-9D5F-2DC6028D8797}"/>
+    <hyperlink ref="Y66" r:id="rId64" display="https://inf-ege.sdamgia.ru/problem?id=47230" xr:uid="{730206A3-AA5B-46E3-8112-2EF4C34AF324}"/>
+    <hyperlink ref="AA66" r:id="rId65" display="https://inf-ege.sdamgia.ru/problem?id=47023" xr:uid="{0AEF7439-149C-4E4B-BD82-DA046BD8D6CE}"/>
+    <hyperlink ref="AA47" r:id="rId66" display="https://inf-ege.sdamgia.ru/problem?id=47014" xr:uid="{6687C7E1-6972-485D-8725-EB18C6183208}"/>
+    <hyperlink ref="AA20" r:id="rId67" display="https://inf-ege.sdamgia.ru/problem?id=47005" xr:uid="{6C047BC5-720B-4C41-A35E-F9399F9F0B44}"/>
+    <hyperlink ref="AA61" r:id="rId68" display="https://inf-ege.sdamgia.ru/problem?id=47020" xr:uid="{AFF075E2-01E9-41D4-9FD5-6275AB865B81}"/>
+    <hyperlink ref="AB51" r:id="rId69" display="https://inf-ege.sdamgia.ru/problem?id=27768" xr:uid="{FA28D42C-8924-48DB-A389-5A25854144AF}"/>
+    <hyperlink ref="AB54" r:id="rId70" display="https://inf-ege.sdamgia.ru/problem?id=27769" xr:uid="{F6173631-159A-4935-882D-4B98E6F30838}"/>
+    <hyperlink ref="AB57" r:id="rId71" display="https://inf-ege.sdamgia.ru/problem?id=27770" xr:uid="{C7E47D83-2A3C-4543-BBE7-F7D68F1AC80F}"/>
+    <hyperlink ref="AC66" r:id="rId72" display="https://inf-ege.sdamgia.ru/problem?id=46984" xr:uid="{927661F3-F3C3-4DD6-9344-10FC07D79D26}"/>
+    <hyperlink ref="AD20" r:id="rId73" display="https://inf-ege.sdamgia.ru/problem?id=40983" xr:uid="{EDE1C6FF-D821-431F-83AA-2281931BB42A}"/>
+    <hyperlink ref="AE67" r:id="rId74" display="https://inf-ege.sdamgia.ru/problem?id=47231" xr:uid="{B2F9AC21-61B3-4D2F-B56A-6D725548988D}"/>
+    <hyperlink ref="AF20" r:id="rId75" display="https://inf-ege.sdamgia.ru/problem?id=33478" xr:uid="{04EAD4E8-F80A-49C4-9616-044BAFD5FD5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
 
